--- a/Robot Information/2017/RoboRIO Layout.xlsx
+++ b/Robot Information/2017/RoboRIO Layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b3670c1b7acdec1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\GitHub\team858\Robot Information\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Digital In/Out</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>Use this layout to label what pins are occupied by the component</t>
+  </si>
+  <si>
+    <t>Gear Light - Spike</t>
+  </si>
+  <si>
+    <t>Intake Motor - Spark</t>
+  </si>
+  <si>
+    <t>Robot Drive - Front Right</t>
+  </si>
+  <si>
+    <t>Robot Drive - Front Left</t>
+  </si>
+  <si>
+    <t>Robot Drive - Back Right</t>
+  </si>
+  <si>
+    <t>Robot Drive - Back Left</t>
+  </si>
+  <si>
+    <t>Pressure Plate - Switch</t>
   </si>
 </sst>
 </file>
@@ -554,175 +575,172 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,426 +1127,484 @@
   </sheetPr>
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W3" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="3.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="1.453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.6328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="15" width="3.08984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.54296875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.36328125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="2"/>
-    <col min="20" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1796875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="3.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.36328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="4.1796875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="E5"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="28" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="E6"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="28"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="E7"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="28"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E8"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="28"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="E9"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="E10"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
     </row>
     <row r="11" spans="1:26" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="E11"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
     </row>
     <row r="12" spans="1:26" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="E12"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
     </row>
     <row r="13" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="51"/>
       <c r="E13"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="28" t="s">
+      <c r="R13" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="51"/>
+      <c r="T13" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="E14"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="28"/>
+      <c r="R14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="53"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="E15"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="28"/>
+      <c r="R15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="53"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="E16"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="28"/>
+      <c r="R16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="53"/>
+      <c r="T16" s="11"/>
     </row>
     <row r="17" spans="1:30" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="E17"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="28"/>
+      <c r="R17" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="53"/>
+      <c r="T17" s="11"/>
     </row>
     <row r="18" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="28"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="11"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
     </row>
     <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="28"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="11"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
     </row>
     <row r="21" spans="1:30" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="28"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="28"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="11"/>
     </row>
     <row r="24" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="4" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="19"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="34"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="20"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="39"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="20"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="39"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="20"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="39"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="20"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="39"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="20"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="20"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="40"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="21"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="44"/>
     </row>
     <row r="34" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="G34" s="29" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="G34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="L34" s="29" t="s">
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="L34" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T13:T22"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="G26:G33"/>
+    <mergeCell ref="H26:H33"/>
+    <mergeCell ref="I26:I33"/>
+    <mergeCell ref="J26:J33"/>
+    <mergeCell ref="K26:K33"/>
+    <mergeCell ref="L26:L33"/>
     <mergeCell ref="AA20:AD20"/>
     <mergeCell ref="AA37:AD37"/>
     <mergeCell ref="A1:T2"/>
@@ -1545,38 +1621,6 @@
     <mergeCell ref="N26:N33"/>
     <mergeCell ref="O26:O33"/>
     <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T13:T22"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="G26:G33"/>
-    <mergeCell ref="H26:H33"/>
-    <mergeCell ref="I26:I33"/>
-    <mergeCell ref="J26:J33"/>
-    <mergeCell ref="K26:K33"/>
-    <mergeCell ref="L26:L33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
